--- a/PLSstatic_predicted_factors_matrix_8.xlsx
+++ b/PLSstatic_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.8233172894177659</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.7402259433002172</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.6796618226328301</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.6383017962907837</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.6129471410930454</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.6013909004557562</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.6012923211630268</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.6106333959329715</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.6276755432157093</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.650389171270587</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.6779435901243235</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.7092194483447382</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.743260877394883</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.7785441314688818</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.8149819592746175</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.8519952359158484</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.889095474525645</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.9258724637015967</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.9619842641522206</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.9971488522966069</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.031137013277153</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.063766195325664</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.094895112005165</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.125349014266652</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.15415162267558</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.181249956926351</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.206615868437046</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.230243051020286</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.253079595574589</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.274207717405289</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.293668866816225</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.311515055238129</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.327807107708965</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.342612913206971</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.35501505390657</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.366124734889787</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.376015852458939</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.384765602361404</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.393465376453579</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.401126935959739</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.407837762256946</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.413681831411127</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-1.418739371262824</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-1.423086611809213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>-1.063445382755046</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.126847669462734</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.167501494346608</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1.188039767425014</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1.188978189863172</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.175061545774457</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.148849110158335</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.112686177461957</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.068694908603384</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.017052398775275</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.9614687587708571</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.9034273606494467</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.8442008959184819</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.783544854212043</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.7240512497303465</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.6664312180923452</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.6112537084618783</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.5589609563660656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.5098839995572922</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.4642568002994957</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.4222290211239938</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.3838775939878579</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.3492172070077231</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.3186927139164024</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.291554884553094</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.2677248936098372</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.2470884305014239</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.2295041040518383</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.21511897505803</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.2033559886479156</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1940474883525141</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1870145822691859</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1820722630301001</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1790327754816501</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1774240842386347</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1773678661326566</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1786770958418171</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1811725871541332</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1849977539616693</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1896787213063676</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1950627898270433</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.2010076029847273</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.2073820690474235</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.2140665187779514</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.3809226750675406</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.2873008473476485</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2041483097701803</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1307277179489704</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06603185101506572</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00996274990764685</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.03819573995559157</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.07913919214621236</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.1135221948263022</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1415577749954476</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.1641257500360924</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.1818109664861738</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1951490130953345</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.2039522100287554</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.2093629263664306</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.2118490932354346</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.2118218259118924</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2096575130611272</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2057010617404769</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.2002674504955093</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.193643026691176</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.186086720161235</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.1778312297660542</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.1696986325320139</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.1612012213679531</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.1524782014151825</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.1436710626838119</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.1349041562858974</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.1267212325354179</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.1187340466112383</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.1110025748691528</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.1035892336284346</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.09654533417515566</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.08991093555999356</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.0834238448507392</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.07741978700130757</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.07192034167143981</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.06692894556894922</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.062658848766693</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.05887070398122764</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.05554218927060776</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.05265458219875913</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.05018685417090093</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.04811574844447596</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>0.4199676710527769</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3403734528697697</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2655127525542832</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1959481302762058</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1315964492640231</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07345919951983056</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.02147888602427336</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.02448957150501693</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.06466390833706323</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.09900304297258852</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.1279491832763093</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.1518967950582553</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.1712487034111625</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.1857395307428181</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1963854917758556</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.2036023107241952</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.2077922181057587</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.2093346661209382</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.2085852393163457</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.205875417717462</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.2015125792361284</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.1957801735161894</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.1889380487938723</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1819076596480939</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.1741362343932954</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.1658231610270804</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.1571397102431077</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.1482382647233856</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.139753810455437</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.1312319483034334</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.122784610741376</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.1145026121551594</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.106462655905932</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.09872869314156289</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.09101907675261908</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08376256756956069</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.07698046254933313</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.07068973139548744</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.06514055885353827</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.06005727611072136</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.05544458595083038</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.05129812065559185</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.04760813173399719</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.04436054556927109</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>-0.3633878068229296</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.2918500424889842</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.2337933695778837</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.1866078459805394</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.1471152832230052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.1150284578459687</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.08890713565895453</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.06761249171737595</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.05023888091999292</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.03564957172690334</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.02377638035449107</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.01414143500740618</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.006357523280942112</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.994090919767033e-05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.005144195495083959</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.009134730443731693</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01220214041894304</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0144992779144492</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01615600526152122</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01728314136657558</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.01797554292469075</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01831452737182665</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0183698086564989</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01826112881996552</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01797762348499628</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01756639855766103</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0170621976400459</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01649394210733295</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01595645780542305</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01539974780602555</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01484090440826212</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0142906040638886</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01375734917311537</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01324795507777307</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01269513572218828</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01217266989388726</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01168555115087113</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01123887570634866</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01090410337123419</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0106174580378754</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01037626061067934</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01017643489815599</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01001418840917199</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.009886045204361676</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>0.1473793203425529</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.1609617468977892</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1656119154939746</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1636859016129608</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1554260243313229</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1442902661084806</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.131423482362649</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.117677497206461</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1036765514501226</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0888569655116395</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.07491391796865296</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.06198556841771175</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.05014055157246934</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.03891915200503768</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.02903584052223427</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.02038691172821854</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01286795176621492</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.006376355843895819</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0008137575566002286</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.003912560098676332</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.007889003888914633</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.01119549651252026</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.0139056007412648</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.01627101306018544</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.01817186334155893</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.01965677937079488</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.02077293994252429</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.021564417748307</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.0223074342875581</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.0227719819057459</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.02299595247551146</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.02301505148898399</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.02286182440488798</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.02256578233865179</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.02192136382639347</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.02123455475478961</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.02051700249993166</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.01977946112708147</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.01923162707166477</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.01863740353514922</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.01801594961877055</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.01738372770759998</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.0167543799239841</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.01613905565064153</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>0.3517653821031558</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.2783927517696279</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2204624191635276</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1752515491183493</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1392059397474974</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1120679723332655</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.09192259217824933</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07719759702483683</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.06661592718327887</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05865486165695551</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.053166703729823</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.04944022505772172</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.04693200911581514</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.04482785361440488</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.04331662498526528</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.04215085831494426</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.04115748402275655</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.04021978348252664</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.03926299690778942</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.03824315179656414</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03713846425833223</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.03594276826469202</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.03466053459372706</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.03361851874385621</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.03245526593170005</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.03119574767993324</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.02986517088667467</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.02848762548664838</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.02732517593235188</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.02610745311278088</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.02485910939228175</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.02360215536338967</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.02235564145853771</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.02113573558746568</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.01978428602682533</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.01852753915707509</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.01736625624422779</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.01631510744109055</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.01547241635715574</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.0146857574953486</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.01395977735023555</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.01329751723937564</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.01270048669472471</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.01216887552751154</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -584,6 +1616,135 @@
       </c>
       <c r="E9" t="n">
         <v>0.2260855395387261</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1825355275963559</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1411666173674961</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.103197254095159</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.06862674872539214</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03892587303889453</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01397629973627336</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.006497349438235562</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.02286361782742206</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.03527157478520477</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.04430684458274971</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.05046144978291543</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.05418638040068996</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.05537434503605392</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.05495631745164833</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.05326736249089804</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.05059362111061398</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.04717745230011906</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.04322322016068365</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.0389024873494202</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.03435854266791831</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.02971031063083168</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.025055712187681</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.02069120860835876</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.01639212521524092</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.01222307231430483</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.008233968874636675</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.004463230161823787</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.000972929050808204</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.002277354674591387</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.005266953607691197</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.007983820568123252</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0104222824417964</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.0125818965893128</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0143639147624593</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.01589329142820548</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.01718087780896355</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.01822609362582866</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.01921174269821158</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.01996197605993083</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.02049501170390804</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.02083015381971583</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.02098687781484153</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.02098443805000533</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_factors_matrix_8.xlsx
+++ b/PLSstatic_predicted_factors_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV9"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-1.418739371262824</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-1.423086611809213</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>-0.2073820690474235</v>
       </c>
-      <c r="AV3" t="n">
-        <v>-0.2140665187779514</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>-0.05018685417090093</v>
       </c>
-      <c r="AV4" t="n">
-        <v>-0.04811574844447596</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.04760813173399719</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.04436054556927109</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.01001418840917199</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.009886045204361676</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.0167543799239841</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.01613905565064153</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>0.01270048669472471</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0.01216887552751154</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1742,9 +1718,6 @@
       </c>
       <c r="AU9" t="n">
         <v>0.02098687781484153</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0.02098443805000533</v>
       </c>
     </row>
   </sheetData>
